--- a/output/item/램프/2022-01-12_램프.xlsx
+++ b/output/item/램프/2022-01-12_램프.xlsx
@@ -927,36 +927,40 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>윤식당 스테인드 글라스 스탠드 침실조명 북유럽 앤틱 인테리어 조명 티파니 램프</t>
+          <t>루미르R 테이블램프 스틸 USB전원 4단계밝기조절 무드등 볼조명</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82037917092</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27540087594</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8203791/82037917092.6.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2754008/27540087594.20210612005244.jpg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>31780</t>
+          <t>152000</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>이로운생활연구소</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>루미르</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
@@ -985,33 +989,33 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>앤트레디션 세타고 Setago 포터블 램프 배송비포함 - 03_트와라잇트 샌트</t>
+          <t>윤식당 스테인드 글라스 스탠드 침실조명 북유럽 앤틱 인테리어 조명 티파니 램프</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28946872264</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82037917092</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2894687/28946872264.20210922225701.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8203791/82037917092.6.jpg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>53900</t>
+          <t>31780</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>이로운생활연구소</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1043,33 +1047,33 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>책상 침대 무선 집게스탠드 조명 독서등 미니 램프 테이블 북라이트</t>
+          <t>앤트레디션 세타고 Setago 포터블 램프 배송비포함 - 03_트와라잇트 샌트</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82441160457</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28946872264</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8244116/82441160457.5.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2894687/28946872264.20210922225701.jpg</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>9400</t>
+          <t>53900</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>멀티폴샵</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1101,33 +1105,33 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>북유럽 머쉬룸 버섯 단 스탠드 조명 램프 침실 침대</t>
+          <t>책상 침대 무선 집게스탠드 조명 독서등 미니 램프 테이블 북라이트</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29250654197</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82441160457</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2925065/29250654197.20211016045556.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8244116/82441160457.5.jpg</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>27240</t>
+          <t>9400</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>멀티폴샵</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1159,22 +1163,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>루이스폴센 판텔라 휴대용 LED 테이블 램프 오팔화이트</t>
+          <t>북유럽 머쉬룸 버섯 단 스탠드 조명 램프 침실 침대</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28877172687</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29250654197</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2887717/28877172687.20211110021645.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2925065/29250654197.20211016045556.jpg</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>145000</t>
+          <t>27240</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -1217,22 +1221,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>마켓비 PROP 워크 클램프 램프</t>
+          <t>루이스폴센 판텔라 휴대용 LED 테이블 램프 오팔화이트</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=10549456638</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28877172687</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1054945/10549456638.20191229041236.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2887717/28877172687.20211110021645.jpg</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11980</t>
+          <t>145000</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -1246,16 +1250,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>마켓비</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>마켓비</t>
-        </is>
-      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -1283,22 +1279,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>빈티지 뱅커스램프 레트로 단스탠드 뱅크스탠드 테이블램프</t>
+          <t>이케아 LAMPAN 테이블 램프</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24953413798</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=4085076281</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2495341/24953413798.20201123185743.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_4085076/4085076281.20140220160158.jpg</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>47900</t>
+          <t>6500</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -1312,8 +1308,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>이케아</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>이케아</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -1341,22 +1345,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>스테인드글라스조명 침대스탠드 빈티지 램프 독서등</t>
+          <t>마켓비 PROP 워크 클램프 램프</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20676729830</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=10549456638</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2067672/20676729830.20220106042958.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1054945/10549456638.20191229041236.jpg</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>15880</t>
+          <t>11980</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -1370,8 +1374,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>마켓비</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>마켓비</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -1399,22 +1411,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SAYLUX 유럽 다이닝 무선 테이블 램프 217</t>
+          <t>빈티지 뱅커스램프 레트로 단스탠드 뱅크스탠드 테이블램프</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29860797622</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24953413798</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2986079/29860797622.20211127203512.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2495341/24953413798.20201123185743.jpg</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>33790</t>
+          <t>47900</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -1457,22 +1469,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>아르테미데 아르떼미데 톨로메오 테이블램프 - LED</t>
+          <t>스테인드글라스조명 침대스탠드 빈티지 램프 독서등</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24252666743</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20676729830</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2425266/24252666743.20211127022630.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2067672/20676729830.20220106042958.jpg</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>167000</t>
+          <t>15880</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -1486,11 +1498,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>아르테미데</t>
-        </is>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
@@ -1519,22 +1527,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>이케아 LAMPAN 테이블 램프</t>
+          <t>SAYLUX 유럽 다이닝 무선 테이블 램프 217</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=4085076281</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29860797622</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_4085076/4085076281.20140220160158.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2986079/29860797622.20211127203512.jpg</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>6500</t>
+          <t>33790</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1548,16 +1556,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>이케아</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>이케아</t>
-        </is>
-      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>단스탠드 미니스탠드 조명 테이블램프 무드등</t>
+          <t>아르테미데 아르떼미데 톨로메오 테이블램프 - LED</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29446761377</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24252666743</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2944676/29446761377.20211029031331.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2425266/24252666743.20211127022630.jpg</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>8280</t>
+          <t>167000</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -1614,7 +1614,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>아르테미데</t>
+        </is>
+      </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
@@ -1643,22 +1647,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>루이스폴센 판텔라 휴대용 LED 테이블 램프 오팔화이트</t>
+          <t>단스탠드 미니스탠드 조명 테이블램프 무드등</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30317354331</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29446761377</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3031735/30317354331.20211227203144.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2944676/29446761377.20211029031331.jpg</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>44000</t>
+          <t>8280</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1759,22 +1763,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>빈티지 우드 플리츠 조명 주름 갓 램프 무드등 스탠드 수면등 홈데코</t>
+          <t>루이스폴센 판텔라 휴대용 LED 테이블 램프 오팔화이트</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25728425211</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30317354331</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2572842/25728425211.20210124205257.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3031735/30317354331.20211227203144.jpg</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10630</t>
+          <t>52990</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -1817,22 +1821,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>아르떼미데 톨로메오 마이크로 테이블 램프 실</t>
+          <t>빈티지 우드 플리츠 조명 주름 갓 램프 무드등 스탠드 수면등 홈데코</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28643426660</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25728425211</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2864342/28643426660.20210830210740.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2572842/25728425211.20210124205257.jpg</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>46600</t>
+          <t>10600</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -1875,22 +1879,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>루미르 R 테이블램프 크롬에디션 유광</t>
+          <t>아르떼미데 톨로메오 마이크로 테이블 램프 실</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28620071322</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28643426660</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2862007/28620071322.20210828220841.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2864342/28643426660.20210830210740.jpg</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>46600</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -1904,11 +1908,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>루미르</t>
-        </is>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>26560</t>
+          <t>26540</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -1995,45 +1995,41 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>이케아테르나뷔 안방스탠드 램프 협탁조명 이케아탁상스탠드 5color</t>
+          <t>루미르 R 테이블램프 크롬에디션 유광</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82712905534</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28620071322</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8271290/82712905534.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2862007/28620071322.20210828220841.jpg</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>26500</t>
+          <t>200000</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>홈익인간</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>이케아</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>이케아</t>
-        </is>
-      </c>
+          <t>루미르</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -2119,43 +2115,43 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>한샘 올리비아 테이블램프</t>
+          <t>이케아테르나뷔 안방스탠드 램프 협탁조명 이케아탁상스탠드 5color</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27333083455</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82712905534</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2733308/27333083455.20210527192311.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8271290/82712905534.1.jpg</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>44900</t>
+          <t>26500</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>홈익인간</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>한샘</t>
+          <t>이케아</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>한샘</t>
+          <t>이케아</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2185,37 +2181,45 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Rosa 엔틱 침실 스탠드 조명 빈티지 안방 협탁 테이블램프</t>
+          <t>한샘 올리비아 테이블램프</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=80101522204</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27333083455</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8010152/80101522204.2.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2733308/27333083455.20210527192311.jpg</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>49900</t>
+          <t>44900</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>스탠드나라</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>한샘</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>한샘</t>
+        </is>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -2243,33 +2247,33 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>스탠드 갓 대형 전등 플리츠 램프 커버 라탄 라이트</t>
+          <t>Rosa 엔틱 침실 스탠드 조명 빈티지 안방 협탁 테이블램프</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28630939313</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=80101522204</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2863093/28630939313.20210829222313.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8010152/80101522204.2.jpg</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>16400</t>
+          <t>49900</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>스탠드나라</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -2301,45 +2305,37 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>[Louis poulsen] 루이스 폴센 판텔라 포터블 Panthella Portable lamp</t>
+          <t>스탠드 갓 대형 전등 플리츠 램프 커버 라탄 라이트</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82455033677</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28630939313</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8245503/82455033677.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2863093/28630939313.20210829222313.jpg</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>405000</t>
+          <t>16400</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>DIVINGHOME</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>루이스폴센</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>루이스폴센</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -2367,37 +2363,45 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>뱅커 단 스탠드 뱅커스램프 조명 독서등 무드등</t>
+          <t>[Louis poulsen] 루이스 폴센 판텔라 포터블 Panthella Portable lamp</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26044281475</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82455033677</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2604428/26044281475.20210218205031.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8245503/82455033677.jpg</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>26470</t>
+          <t>405000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>DIVINGHOME</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>루이스폴센</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>루이스폴센</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -2425,22 +2429,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>FANDBO 유럽 침실 머리맡 테이블 램프 엔틱 스탠드</t>
+          <t>뱅커 단 스탠드 뱅커스램프 조명 독서등 무드등</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=17799930423</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26044281475</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1779993/17799930423.20190302164448.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2604428/26044281475.20210218205031.jpg</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>47980</t>
+          <t>26450</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -2483,22 +2487,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>아르테미데 Artemide Shogun 아르떼미데 쇼군 테이블 램프 거실 침실 무드등</t>
+          <t>FANDBO 유럽 침실 머리맡 테이블 램프 엔틱 스탠드</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27360957183</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=17799930423</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2736095/27360957183.20210529214843.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1779993/17799930423.20190302164448.jpg</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>740000</t>
+          <t>47980</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -2512,16 +2516,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>아르테미데</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>아르테미데</t>
-        </is>
-      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -2549,41 +2545,45 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>침실 침대 스탠드 조명 무드등 안방 협탁 테이블램프 단스탠드+LED전구</t>
+          <t>아르테미데 Artemide Shogun 아르떼미데 쇼군 테이블 램프 거실 침실 무드등</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=80527712217</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27360957183</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8052771/80527712217.33.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2736095/27360957183.20210529214843.jpg</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>15900</t>
+          <t>740000</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>스탠드나라</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>루미앤</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr"/>
+          <t>아르테미데</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>아르테미데</t>
+        </is>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -2611,45 +2611,41 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>아르테미데 네소 테이블 램프 독일 현지배송</t>
+          <t>침실 침대 스탠드 조명 무드등 안방 협탁 테이블램프 단스탠드+LED전구</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24840509825</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=80527712217</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2484050/24840509825.20201114215959.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8052771/80527712217.33.jpg</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>31600</t>
+          <t>15900</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>스탠드나라</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>아르테미데</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>아르테미데</t>
-        </is>
-      </c>
+          <t>루미앤</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -2677,22 +2673,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>루이스폴센 판텔라 미니 테이블 램프 12종 모음</t>
+          <t>아르테미데 네소 테이블 램프 독일 현지배송</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30091961029</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24840509825</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3009196/30091961029.20211215005217.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2484050/24840509825.20201114215959.jpg</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>470000</t>
+          <t>31600</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -2708,12 +2704,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>루이스폴센</t>
+          <t>아르테미데</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>루이스폴센</t>
+          <t>아르테미데</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2743,22 +2739,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>미국 도서관 하버드 초록색 뱅커스 램프 - J</t>
+          <t>루이스폴센 판텔라 미니 테이블 램프 12종 모음</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29899624684</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30091961029</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2989962/29899624684.20211201011642.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3009196/30091961029.20211215005217.jpg</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>15380</t>
+          <t>470000</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -2772,8 +2768,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>루이스폴센</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>루이스폴센</t>
+        </is>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -2801,22 +2805,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>북유럽 작은 푸딩 유리 테이블 램프 2 color 단스탠드 유니크 침실 조명</t>
+          <t>미국 도서관 하버드 초록색 뱅커스 램프 - J</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26164953238</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29899624684</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2616495/26164953238.20211218033035.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2989962/29899624684.20211201011642.jpg</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>40020</t>
+          <t>15380</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -2859,22 +2863,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>빈티지 플리츠 조명 스탠드 램프 미드센츄리 레트로</t>
+          <t>북유럽 작은 푸딩 유리 테이블 램프 2 color 단스탠드 유니크 침실 조명</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26591226704</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26164953238</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2659122/26591226704.20210331193725.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2616495/26164953238.20211218033035.jpg</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>38220</t>
+          <t>40020</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -2917,22 +2921,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>카르텔 배터리 충전식 테이블램프 크리스탈</t>
+          <t>빈티지 플리츠 조명 스탠드 램프 미드센츄리 레트로</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21738569364</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26591226704</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2173856/21738569364.20200111181126.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2659122/26591226704.20210331193725.jpg</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>130000</t>
+          <t>38220</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -2946,11 +2950,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>카르텔</t>
-        </is>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
@@ -2979,22 +2979,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>라벤조명 엔틱 빈티지 레트로 유리 조명 초록색 책상 독서등 뱅커 스탠드 뱅커스 램프</t>
+          <t>카르텔 배터리 충전식 테이블램프 크리스탈</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30286479433</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21738569364</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3028647/30286479433.20211224231142.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2173856/21738569364.20200111181126.jpg</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>39500</t>
+          <t>130000</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -3010,7 +3010,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>라벤조명</t>
+          <t>카르텔</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -3041,22 +3041,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>엘사 크리스탈 눈꽃스탠드 조명 램프11 이벤트행사</t>
+          <t>라벤조명 엔틱 빈티지 레트로 유리 조명 초록색 책상 독서등 뱅커 스탠드 뱅커스 램프</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24933729175</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30286479433</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2493372/24933729175.20201122000035.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3028647/30286479433.20211224231142.jpg</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>135800</t>
+          <t>39500</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -3070,7 +3070,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>라벤조명</t>
+        </is>
+      </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
@@ -3099,22 +3103,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>카르텔 조명 무선 LED 스탠드 테이블 크리스탈 램프</t>
+          <t>엘사 크리스탈 눈꽃스탠드 조명 램프11 이벤트행사</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27944279018</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24933729175</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2794427/27944279018.20210710230128.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2493372/24933729175.20201122000035.jpg</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>35200</t>
+          <t>135800</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -3157,22 +3161,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>마켓비 STUDIA 워크 클램프램프</t>
+          <t>카르텔 조명 무선 LED 스탠드 테이블 크리스탈 램프</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25643665613</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27944279018</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2564366/25643665613.20210118003356.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2794427/27944279018.20210710230128.jpg</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>12910</t>
+          <t>35200</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
@@ -3186,16 +3190,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>마켓비</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>마켓비</t>
-        </is>
-      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -3281,22 +3277,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Flos 플로스st 스탠드 조명 Snoopy table lamp</t>
+          <t>마켓비 STUDIA 워크 클램프램프</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23565757171</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25643665613</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2356575/23565757171.20200724173015.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2564366/25643665613.20210118003356.jpg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>99000</t>
+          <t>12890</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -3310,8 +3306,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>마켓비</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>마켓비</t>
+        </is>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -3339,22 +3343,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>빈티지 테이블 램프 스테인드 글라스 엔틱 버섯 스탠드 협탁조명</t>
+          <t>Flos 플로스st 스탠드 조명 Snoopy table lamp</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29593341346</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23565757171</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2959334/29593341346.20211109003352.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2356575/23565757171.20200724173015.jpg</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>76000</t>
+          <t>99000</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -3397,22 +3401,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>요술 미니 스탠드 아쿠아블루 단스탠드 조명 램프</t>
+          <t>빈티지 테이블 램프 스테인드 글라스 엔틱 버섯 스탠드 협탁조명</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30033059432</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29593341346</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3003305/30033059432.20211210235036.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2959334/29593341346.20211109003352.jpg</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>42790</t>
+          <t>76000</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -3455,22 +3459,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>앵글포이즈 스미스 Anglepoise Type 75 Desk Lamp</t>
+          <t>아령 LED 램프 스탠드 덤벨 조명 터치스위치 구릿빛</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23355534879</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29473583685</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2335553/23355534879.20200704213639.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2947358/29473583685.20211031042058.jpg</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>270000</t>
+          <t>28200</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -3484,11 +3488,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>앵글포이즈</t>
-        </is>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
@@ -3532,7 +3532,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>24000</t>
+          <t>23980</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -3575,22 +3575,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>COMS 원형 LED 램프 자석 스탠드거치 AAAx3 COB LED 타입</t>
+          <t>요술 미니 스탠드 아쿠아블루 단스탠드 조명 램프</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19492636898</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30033059432</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1949263/19492636898.20190528015716.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3003305/30033059432.20211210235036.jpg</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>3390</t>
+          <t>42790</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -3633,22 +3633,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>카르텔 BATTERY 메탈릭 램프</t>
+          <t>앵글포이즈 스미스 Anglepoise Type 75 Desk Lamp</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29159430375</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23355534879</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2915943/29159430375.20211008225045.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2335553/23355534879.20200704213639.jpg</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>257210</t>
+          <t>270000</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -3664,14 +3664,10 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>카르텔</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>카르텔</t>
-        </is>
-      </c>
+          <t>앵글포이즈</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -3699,22 +3695,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>아령 LED 램프 스탠드 덤벨 조명 터치스위치 구릿빛</t>
+          <t>카르텔 BATTERY 메탈릭 램프</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29473583685</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29159430375</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2947358/29473583685.20211031042058.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2915943/29159430375.20211008225045.jpg</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>28200</t>
+          <t>257210</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
@@ -3728,8 +3724,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>카르텔</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>카르텔</t>
+        </is>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -3757,43 +3761,39 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>이케아 스탠드 등갓 플리츠 주름등 갓만 구입 램프 단스탠드 조명 무드등</t>
+          <t>북램프-북프렌즈</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83391777391</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=12750434433</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8339177/83391777391.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1275043/12750434433.20191018020511.jpg</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>6900</t>
+          <t>19600</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>브랜디홈</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>마켓비</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>마켓비</t>
+          <t>북프렌즈</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3823,39 +3823,43 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>북램프-북프렌즈</t>
+          <t>이케아 스탠드 등갓 플리츠 주름등 갓만 구입 램프 단스탠드 조명 무드등</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=12750434433</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83391777391</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1275043/12750434433.20191018020511.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8339177/83391777391.jpg</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>19600</t>
+          <t>6900</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>브랜디홈</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr"/>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>마켓비</t>
+        </is>
+      </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>북프렌즈</t>
+          <t>마켓비</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4129,22 +4133,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>앤트레디션 세타고 Setago 테이블 램프 3컬러 포터블 조명</t>
+          <t>겨울 크리스마스 조명 테이블 무드 탁상 램프 건전지</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29555560059</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24803973389</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2955556/29555560059.20211106025812.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2480397/24803973389.20201112015410.jpg</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>57000</t>
+          <t>27260</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -4187,22 +4191,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>겨울 크리스마스 조명 테이블 무드 탁상 램프 건전지</t>
+          <t>앤트레디션 세타고 Setago 테이블 램프 3컬러 포터블 조명</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24803973389</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29555560059</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2480397/24803973389.20201112015410.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2955556/29555560059.20211106025812.jpg</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>27260</t>
+          <t>57000</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -4260,7 +4264,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>25470</t>
+          <t>26260</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -5085,40 +5089,36 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>삼성 LED 데스크 램프 SI-10A2A2D(생체리듬 멜라토닉 플리커 방지 눈보호 스탠드)</t>
+          <t>메종 램프 클로리스</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82652172103</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28608614453</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8265217/82652172103.3.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2860861/28608614453.20210828041945.jpg</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>79000</t>
+          <t>88000</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
-          <t>삼성온라인몰</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>삼성</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
@@ -5147,38 +5147,38 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>앳홈 앳홈 LED 크리스탈 테이블 램프</t>
+          <t>삼성 LED 데스크 램프 SI-10A2A2D(생체리듬 멜라토닉 플리커 방지 눈보호 스탠드)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30297296270</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82652172103</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3029729/30297296270.20211225220025.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8265217/82652172103.3.jpg</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>17730</t>
+          <t>79000</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>삼성온라인몰</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>앳홈</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -5209,22 +5209,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>메종 램프 클로리스</t>
+          <t>이태리배송 디자인 조명 관절 테이블 램프 9 W</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28608614453</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28917590805</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2860861/28608614453.20210828041945.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2891759/28917590805.20210920022914.jpg</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>88000</t>
+          <t>105200</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
@@ -5267,22 +5267,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>이태리배송 디자인 조명 관절 테이블 램프 9 W</t>
+          <t>북유럽 플라워 스탠드 테이블 꽃 램프 꽃송이 조명</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28917590805</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30063889769</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2891759/28917590805.20210920022914.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3006388/30063889769.20211213032806.jpg</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>105200</t>
+          <t>10790</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
@@ -5325,22 +5325,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>북유럽 플라워 스탠드 테이블 꽃 램프 꽃송이 조명</t>
+          <t>앤트레디션 플라워팟 VP9 테이블 램프 11컬러</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30063889769</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27371018233</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3006388/30063889769.20211213032806.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2737101/27371018233.20210802151832.jpg</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>10810</t>
+          <t>224680</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
@@ -5441,22 +5441,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>앤트레디션 플라워팟 VP9 테이블 램프 11컬러</t>
+          <t>빈티지 레트로 스테인글라스 스탠드 조명 램프 - BG</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27371018233</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27348123332</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2737101/27371018233.20210802151832.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2734812/27348123332.20210528212351.jpg</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>224680</t>
+          <t>31030</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
@@ -5499,22 +5499,22 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>빈티지 레트로 스테인글라스 스탠드 조명 램프 - BG</t>
+          <t>테크노루멘 WG 24 테이블 램프 Tecnolumen Wagenfeld WG24</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27348123332</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28807346469</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2734812/27348123332.20210528212351.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2880734/28807346469.20210911230517.jpg</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>31010</t>
+          <t>122900</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
@@ -5557,22 +5557,22 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>테크노루멘 WG 24 테이블 램프 Tecnolumen Wagenfeld WG24</t>
+          <t>한샘 뉴 클림트 테이블 램프 전구미포함</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28807346469</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29019191780</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2880734/28807346469.20210911230517.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2901919/29019191780.20210928231523.jpg</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>122900</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
@@ -5673,22 +5673,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>한샘 뉴 클림트 테이블 램프 전구미포함</t>
+          <t>복고풍 레트로 크리스탈 스탠드 조명 램프 앤틱스타일</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29019191780</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26042660109</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2901919/29019191780.20210928231523.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2604266/26042660109.20210218185408.jpg</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>171320</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
@@ -5731,22 +5731,22 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>복고풍 레트로 크리스탈 스탠드 조명 램프 앤틱스타일</t>
+          <t>앳홈 앳홈 LED 크리스탈 테이블 램프</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26042660109</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30297296270</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2604266/26042660109.20210218185408.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3029729/30297296270.20211225220025.jpg</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>171320</t>
+          <t>17750</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
@@ -5760,7 +5760,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I90" t="inlineStr"/>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>앳홈</t>
+        </is>
+      </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
@@ -5971,22 +5975,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>루미르R 테이블램프 스틸 USB전원 4단계밝기조절 무드등 볼조명</t>
+          <t>한샘 한샘 뉴 엘리시아 테이블 램프</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27540087594</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25970058513</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2754008/27540087594.20210612005244.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2597005/25970058513.20210212191647.jpg</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>152000</t>
+          <t>70050</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -6002,7 +6006,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>루미르</t>
+          <t>한샘</t>
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
@@ -6091,22 +6095,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>한샘 한샘 뉴 엘리시아 테이블 램프</t>
+          <t>판텔라 미니 Panthella 테이블 램프 조명 인테리어 북유럽 스칸디나비아</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25970058513</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23981285844</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2597005/25970058513.20210212191647.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2398128/23981285844.20200831164510.jpg</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>70050</t>
+          <t>35700</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
@@ -6120,11 +6124,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>한샘</t>
-        </is>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
@@ -6153,22 +6153,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>판텔라 미니 Panthella 테이블 램프 조명 인테리어 북유럽 스칸디나비아</t>
+          <t>루미오 북램프 클래식</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23981285844</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22654799931</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2398128/23981285844.20200831164510.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2265479/22654799931.20200426154249.jpg</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>35700</t>
+          <t>321510</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
@@ -6211,22 +6211,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>스탠드 디자인 LED 램프</t>
+          <t>vintage 빈티지 주름 램프 인테리어조명 받침대</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24864572858</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23487928735</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2486457/24864572858.20201116194120.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2348792/23487928735.20200717161032.jpg</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>4630</t>
+          <t>14900</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
@@ -6269,37 +6269,45 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>루미오 북램프 클래식</t>
+          <t>아르떼미데 톨로메오 마이크로 테이블 램프 블랙, 실버 등</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22654799931</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82710838467</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2265479/22654799931.20200426154249.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8271083/82710838467.jpg</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>321510</t>
+          <t>167000</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>사다 DREAM</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>아르테미데</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>아르테미데</t>
+        </is>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -6327,33 +6335,33 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>vintage 빈티지 주름 램프 인테리어조명 받침대</t>
+          <t>엔틱 램프 빈티지 침실 각도 침대 테이블램프 탁상램프 엔틱 무드등</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23487928735</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29311187896</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2348792/23487928735.20200717161032.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2931118/29311187896.jpg</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>14900</t>
+          <t>43210</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>롯데ON</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -6385,45 +6393,37 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>아르떼미데 톨로메오 마이크로 테이블 램프 블랙, 실버 등</t>
+          <t>더듬이 집게형 스탠드 북램프 조명 자바라 북라이트</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82710838467</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28545597811</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8271083/82710838467.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2854559/28545597811.20210914010201.jpg</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>167000</t>
+          <t>3280</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
-          <t>사다 DREAM</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>아르테미데</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>아르테미데</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
